--- a/biology/Zoologie/Bothrops_itapetiningae/Bothrops_itapetiningae.xlsx
+++ b/biology/Zoologie/Bothrops_itapetiningae/Bothrops_itapetiningae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bothrops itapetiningae est une espèce de serpents de la famille des Viperidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bothrops itapetiningae est une espèce de serpents de la famille des Viperidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Sud-Est du Brésil. Elle se rencontre dans les États de Santa Catarina, du Paraná, de São Paulo, du Minas Gerais, du Mato Grosso et dans le Sud du Goiás[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Sud-Est du Brésil. Elle se rencontre dans les États de Santa Catarina, du Paraná, de São Paulo, du Minas Gerais, du Mato Grosso et dans le Sud du Goiás. 
 Sa présence est incertaine dans le Rio Grande do Sul.
 </t>
         </is>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Bothrops itapetiningae[2] mesure 400 mm dont 55 mm pour la queue. C'est un serpent venimeux[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Bothrops itapetiningae mesure 400 mm dont 55 mm pour la queue. C'est un serpent venimeux.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la ville d'Itapetininga dans l’État de São Paulo[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la ville d'Itapetininga dans l’État de São Paulo.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Boulenger, 1907 : Description of a new pit viper from Brazil. Annals and Magazine of Natural History, sér. 7, vol. 20, p. 338 (texte intégral).</t>
         </is>
